--- a/data/trans_orig/P19C04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{743DE04F-9F78-4955-AE9F-E92A23456525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ED50492-254A-4FF8-BEF9-4BAE51B44293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{321615D5-CECE-45EF-916C-D564C2152940}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{592842DB-7CBF-4530-80FC-3AE90503CC51}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="502">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>10,87%</t>
   </si>
   <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
   </si>
   <si>
     <t>7,67%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
   </si>
   <si>
     <t>9,24%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>89,13%</t>
   </si>
   <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
   </si>
   <si>
     <t>92,33%</t>
   </si>
   <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>90,76%</t>
   </si>
   <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,49 +140,43 @@
     <t>14,02%</t>
   </si>
   <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
   </si>
   <si>
     <t>12,49%</t>
   </si>
   <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
   </si>
   <si>
     <t>85,98%</t>
   </si>
   <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
   </si>
   <si>
     <t>87,51%</t>
   </si>
   <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -191,1330 +185,1342 @@
     <t>18,47%</t>
   </si>
   <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2015 (Tasa respuesta: 80,01%)</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2023 (Tasa respuesta: 96,87%)</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
   </si>
   <si>
     <t>84,94%</t>
   </si>
   <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
     <t>21,69%</t>
   </si>
   <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
   </si>
   <si>
     <t>78,31%</t>
   </si>
   <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
   </si>
   <si>
     <t>15,71%</t>
   </si>
   <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
   </si>
   <si>
     <t>84,29%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2015 (Tasa respuesta: 80,01%)</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2023 (Tasa respuesta: 96,87%)</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
   </si>
   <si>
     <t>83,0%</t>
@@ -1950,7 +1956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DBB0BE-C3D0-45E9-B417-0A2BEBF947A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4103C415-C305-435A-BBA5-88D8E2408A43}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2232,10 +2238,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>56</v>
@@ -2247,10 +2253,10 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>132</v>
@@ -2259,13 +2265,13 @@
         <v>140279</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,13 +2286,13 @@
         <v>495046</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H8" s="7">
         <v>463</v>
@@ -2298,10 +2304,10 @@
         <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
         <v>941</v>
@@ -2310,13 +2316,13 @@
         <v>983210</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2372,7 +2378,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2384,13 +2390,13 @@
         <v>92873</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>75</v>
@@ -2399,13 +2405,13 @@
         <v>77868</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>168</v>
@@ -2414,13 +2420,13 @@
         <v>170741</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,13 +2441,13 @@
         <v>410060</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>500</v>
@@ -2450,13 +2456,13 @@
         <v>525697</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>893</v>
@@ -2465,13 +2471,13 @@
         <v>935756</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2527,7 +2533,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2539,13 +2545,13 @@
         <v>111475</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>86</v>
@@ -2554,13 +2560,13 @@
         <v>87820</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>191</v>
@@ -2569,13 +2575,13 @@
         <v>199295</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,13 +2596,13 @@
         <v>293273</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>343</v>
@@ -2605,13 +2611,13 @@
         <v>351365</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>618</v>
@@ -2620,13 +2626,13 @@
         <v>644638</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,7 +2688,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2694,13 +2700,13 @@
         <v>71583</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>63</v>
@@ -2709,13 +2715,13 @@
         <v>64573</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>139</v>
@@ -2724,13 +2730,13 @@
         <v>136156</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,13 +2751,13 @@
         <v>200766</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>249</v>
@@ -2760,13 +2766,13 @@
         <v>254509</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="M17" s="7">
         <v>449</v>
@@ -2775,13 +2781,13 @@
         <v>455275</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,7 +2843,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2849,13 +2855,13 @@
         <v>93948</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>83</v>
@@ -2864,13 +2870,13 @@
         <v>83891</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>178</v>
@@ -2879,13 +2885,13 @@
         <v>177839</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,13 +2906,13 @@
         <v>245581</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>366</v>
@@ -2915,13 +2921,13 @@
         <v>371255</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>620</v>
@@ -2930,13 +2936,13 @@
         <v>616836</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +3010,13 @@
         <v>489693</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>395</v>
@@ -3019,13 +3025,13 @@
         <v>402562</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>879</v>
@@ -3034,13 +3040,13 @@
         <v>892255</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3061,13 @@
         <v>1965049</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H23" s="7">
         <v>2284</v>
@@ -3169,7 +3175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BC2536-8EF7-4073-8257-B2BDEE200C73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4F6FD1-72F1-4F18-BFD5-9DAD125DD819}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3299,7 +3305,7 @@
         <v>141</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="H4" s="7">
         <v>47</v>
@@ -3308,13 +3314,13 @@
         <v>48041</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M4" s="7">
         <v>99</v>
@@ -3323,13 +3329,13 @@
         <v>100134</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,28 +3350,28 @@
         <v>327083</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H5" s="7">
         <v>315</v>
       </c>
       <c r="I5" s="7">
-        <v>322949</v>
+        <v>322950</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M5" s="7">
         <v>636</v>
@@ -3374,13 +3380,13 @@
         <v>650032</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,7 +3413,7 @@
         <v>362</v>
       </c>
       <c r="I6" s="7">
-        <v>370990</v>
+        <v>370991</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3448,13 +3454,13 @@
         <v>110089</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H7" s="7">
         <v>64</v>
@@ -3463,13 +3469,13 @@
         <v>65765</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M7" s="7">
         <v>171</v>
@@ -3478,13 +3484,13 @@
         <v>175854</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3505,13 @@
         <v>487178</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H8" s="7">
         <v>457</v>
@@ -3514,13 +3520,13 @@
         <v>491980</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M8" s="7">
         <v>930</v>
@@ -3529,13 +3535,13 @@
         <v>979158</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,7 +3597,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3603,13 +3609,13 @@
         <v>133982</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H10" s="7">
         <v>90</v>
@@ -3618,13 +3624,13 @@
         <v>94864</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M10" s="7">
         <v>219</v>
@@ -3633,13 +3639,13 @@
         <v>228846</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3660,13 @@
         <v>452669</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H11" s="7">
         <v>531</v>
@@ -3669,13 +3675,13 @@
         <v>564590</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M11" s="7">
         <v>965</v>
@@ -3684,13 +3690,13 @@
         <v>1017258</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,7 +3752,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3758,13 +3764,13 @@
         <v>134285</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H13" s="7">
         <v>90</v>
@@ -3773,13 +3779,13 @@
         <v>102619</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
         <v>213</v>
@@ -3788,13 +3794,13 @@
         <v>236905</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,16 +3812,16 @@
         <v>360</v>
       </c>
       <c r="D14" s="7">
-        <v>408555</v>
+        <v>408554</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H14" s="7">
         <v>403</v>
@@ -3824,13 +3830,13 @@
         <v>460732</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>763</v>
@@ -3839,13 +3845,13 @@
         <v>869285</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,7 +3863,7 @@
         <v>483</v>
       </c>
       <c r="D15" s="7">
-        <v>542840</v>
+        <v>542839</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3901,7 +3907,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3913,13 +3919,13 @@
         <v>114826</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -3928,13 +3934,13 @@
         <v>87292</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M16" s="7">
         <v>186</v>
@@ -3943,13 +3949,13 @@
         <v>202117</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +3970,13 @@
         <v>246484</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H17" s="7">
         <v>273</v>
@@ -3979,13 +3985,13 @@
         <v>302395</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M17" s="7">
         <v>499</v>
@@ -3994,13 +4000,13 @@
         <v>548880</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,7 +4062,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4068,13 +4074,13 @@
         <v>174922</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H19" s="7">
         <v>144</v>
@@ -4083,13 +4089,13 @@
         <v>153285</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M19" s="7">
         <v>300</v>
@@ -4098,13 +4104,13 @@
         <v>328207</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,13 +4125,13 @@
         <v>272494</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H20" s="7">
         <v>421</v>
@@ -4134,13 +4140,13 @@
         <v>450709</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M20" s="7">
         <v>669</v>
@@ -4149,13 +4155,13 @@
         <v>723203</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4229,13 @@
         <v>720197</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H22" s="7">
         <v>514</v>
@@ -4238,13 +4244,13 @@
         <v>551865</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M22" s="7">
         <v>1188</v>
@@ -4253,13 +4259,13 @@
         <v>1272062</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4280,13 @@
         <v>2194461</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H23" s="7">
         <v>2400</v>
@@ -4289,13 +4295,13 @@
         <v>2593356</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M23" s="7">
         <v>4462</v>
@@ -4304,13 +4310,13 @@
         <v>4787818</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,7 +4394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F5661B-D8C2-4646-9573-10B9D87D77D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848DB49F-591C-494C-9ED2-F9084933FE58}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4405,7 +4411,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4512,13 +4518,13 @@
         <v>32521</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -4527,13 +4533,13 @@
         <v>29973</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -4542,13 +4548,13 @@
         <v>62494</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +4569,13 @@
         <v>320319</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H5" s="7">
         <v>329</v>
@@ -4578,13 +4584,13 @@
         <v>321957</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M5" s="7">
         <v>630</v>
@@ -4593,13 +4599,13 @@
         <v>642276</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4673,13 @@
         <v>70533</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H7" s="7">
         <v>62</v>
@@ -4682,13 +4688,13 @@
         <v>59872</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>283</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M7" s="7">
         <v>128</v>
@@ -4697,13 +4703,13 @@
         <v>130405</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>290</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4724,13 @@
         <v>422545</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H8" s="7">
         <v>448</v>
@@ -4733,13 +4739,13 @@
         <v>436848</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>292</v>
       </c>
       <c r="M8" s="7">
         <v>857</v>
@@ -4748,13 +4754,13 @@
         <v>859392</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>297</v>
+        <v>167</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,7 +4816,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4822,13 +4828,13 @@
         <v>78975</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H10" s="7">
         <v>60</v>
@@ -4837,13 +4843,13 @@
         <v>60119</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M10" s="7">
         <v>136</v>
@@ -4852,13 +4858,13 @@
         <v>139095</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>177</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4879,13 @@
         <v>478885</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H11" s="7">
         <v>516</v>
@@ -4888,13 +4894,13 @@
         <v>512961</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M11" s="7">
         <v>971</v>
@@ -4903,13 +4909,13 @@
         <v>991845</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>186</v>
+        <v>311</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,7 +4971,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4977,13 +4983,13 @@
         <v>91910</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>316</v>
+        <v>38</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -4992,13 +4998,13 @@
         <v>64862</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M13" s="7">
         <v>145</v>
@@ -5007,13 +5013,13 @@
         <v>156772</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5034,13 @@
         <v>420462</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>326</v>
+        <v>44</v>
       </c>
       <c r="H14" s="7">
         <v>447</v>
@@ -5043,13 +5049,13 @@
         <v>480022</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M14" s="7">
         <v>825</v>
@@ -5058,13 +5064,13 @@
         <v>900484</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,7 +5126,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5132,13 +5138,13 @@
         <v>98525</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -5147,13 +5153,13 @@
         <v>52132</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M16" s="7">
         <v>133</v>
@@ -5162,13 +5168,13 @@
         <v>150657</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,13 +5189,13 @@
         <v>272477</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H17" s="7">
         <v>298</v>
@@ -5198,13 +5204,13 @@
         <v>342647</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M17" s="7">
         <v>540</v>
@@ -5213,13 +5219,13 @@
         <v>615123</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,7 +5281,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5287,13 +5293,13 @@
         <v>103264</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>352</v>
+        <v>90</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H19" s="7">
         <v>87</v>
@@ -5302,13 +5308,13 @@
         <v>106386</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M19" s="7">
         <v>197</v>
@@ -5317,13 +5323,13 @@
         <v>209650</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,13 +5344,13 @@
         <v>273918</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>361</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>343</v>
@@ -5353,13 +5359,13 @@
         <v>398441</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>41</v>
+        <v>359</v>
       </c>
       <c r="M20" s="7">
         <v>634</v>
@@ -5368,13 +5374,13 @@
         <v>672359</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5448,13 @@
         <v>475728</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H22" s="7">
         <v>345</v>
@@ -5457,13 +5463,13 @@
         <v>373344</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M22" s="7">
         <v>799</v>
@@ -5472,13 +5478,13 @@
         <v>849072</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>13</v>
+        <v>368</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,16 +5496,16 @@
         <v>2076</v>
       </c>
       <c r="D23" s="7">
-        <v>2188606</v>
+        <v>2188605</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H23" s="7">
         <v>2381</v>
@@ -5508,13 +5514,13 @@
         <v>2492876</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M23" s="7">
         <v>4457</v>
@@ -5523,13 +5529,13 @@
         <v>4681482</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>22</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,7 +5547,7 @@
         <v>2530</v>
       </c>
       <c r="D24" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -5607,7 +5613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FE3E18-3F91-49F9-92C3-77276DC110E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D419163-A9A9-49D3-93D1-2FA668F45E62}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5624,7 +5630,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5731,13 +5737,13 @@
         <v>26667</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -5746,13 +5752,13 @@
         <v>13898</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -5761,13 +5767,13 @@
         <v>40565</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,13 +5788,13 @@
         <v>331091</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H5" s="7">
         <v>185</v>
@@ -5797,13 +5803,13 @@
         <v>330598</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M5" s="7">
         <v>331</v>
@@ -5812,13 +5818,13 @@
         <v>661689</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,13 +5892,13 @@
         <v>46249</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -5901,13 +5907,13 @@
         <v>41802</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -5916,13 +5922,13 @@
         <v>88051</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5943,13 @@
         <v>360951</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H8" s="7">
         <v>403</v>
@@ -5952,13 +5958,13 @@
         <v>444073</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M8" s="7">
         <v>651</v>
@@ -5967,13 +5973,13 @@
         <v>805024</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,7 +6035,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6041,13 +6047,13 @@
         <v>64188</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -6056,13 +6062,13 @@
         <v>49326</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="M10" s="7">
         <v>146</v>
@@ -6071,13 +6077,13 @@
         <v>113514</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6098,13 @@
         <v>478895</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H11" s="7">
         <v>751</v>
@@ -6107,13 +6113,13 @@
         <v>522870</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="M11" s="7">
         <v>1205</v>
@@ -6122,13 +6128,13 @@
         <v>1001766</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,7 +6190,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6196,13 +6202,13 @@
         <v>95399</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>148</v>
+        <v>436</v>
       </c>
       <c r="H13" s="7">
         <v>109</v>
@@ -6211,13 +6217,13 @@
         <v>69661</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M13" s="7">
         <v>211</v>
@@ -6226,13 +6232,13 @@
         <v>165061</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6253,13 @@
         <v>607195</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>156</v>
+        <v>443</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H14" s="7">
         <v>1008</v>
@@ -6262,13 +6268,13 @@
         <v>664146</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M14" s="7">
         <v>1547</v>
@@ -6277,13 +6283,13 @@
         <v>1271339</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,7 +6345,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6351,13 +6357,13 @@
         <v>116830</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="H16" s="7">
         <v>140</v>
@@ -6366,13 +6372,13 @@
         <v>80879</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="M16" s="7">
         <v>281</v>
@@ -6381,13 +6387,13 @@
         <v>197708</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6408,13 @@
         <v>467940</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="H17" s="7">
         <v>841</v>
@@ -6417,13 +6423,13 @@
         <v>501464</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="M17" s="7">
         <v>1345</v>
@@ -6432,13 +6438,13 @@
         <v>969405</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,7 +6500,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6506,10 +6512,10 @@
         <v>165384</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>469</v>
@@ -6557,13 +6563,13 @@
         <v>515078</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>1345</v>
@@ -6661,13 +6667,13 @@
         <v>514717</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>158</v>
+        <v>484</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H22" s="7">
         <v>684</v>
@@ -6676,13 +6682,13 @@
         <v>411696</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M22" s="7">
         <v>1298</v>
@@ -6691,13 +6697,13 @@
         <v>926413</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6718,13 @@
         <v>2761149</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>167</v>
+        <v>493</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H23" s="7">
         <v>4533</v>
@@ -6727,13 +6733,13 @@
         <v>3305152</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="M23" s="7">
         <v>7171</v>
@@ -6742,13 +6748,13 @@
         <v>6066301</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19C04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C04-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ED50492-254A-4FF8-BEF9-4BAE51B44293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC3B99EB-F30F-48DE-B426-B170570B7E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{592842DB-7CBF-4530-80FC-3AE90503CC51}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{98495C4C-7F04-403C-8B09-1982258287F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="498">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -77,1474 +77,1462 @@
     <t>10,87%</t>
   </si>
   <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
   </si>
   <si>
     <t>7,67%</t>
   </si>
   <si>
-    <t>5,31%</t>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2016 (Tasa respuesta: 80,01%)</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2023 (Tasa respuesta: 96,87%)</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
   </si>
   <si>
     <t>10,75%</t>
   </si>
   <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
   </si>
   <si>
     <t>89,25%</t>
   </si>
   <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
   </si>
   <si>
     <t>24,3%</t>
   </si>
   <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
   </si>
   <si>
     <t>75,7%</t>
   </si>
   <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2015 (Tasa respuesta: 80,01%)</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2023 (Tasa respuesta: 96,87%)</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
   </si>
   <si>
     <t>84,36%</t>
   </si>
   <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
   </si>
   <si>
     <t>80,85%</t>
   </si>
   <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
   </si>
   <si>
     <t>15,71%</t>
   </si>
   <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
   </si>
   <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
   </si>
   <si>
     <t>84,29%</t>
   </si>
   <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
   </si>
   <si>
     <t>86,75%</t>
   </si>
   <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
   </si>
 </sst>
 </file>
@@ -1956,7 +1944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4103C415-C305-435A-BBA5-88D8E2408A43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366DE67C-CDED-494C-B8BE-55E48AA3C0EB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2238,10 +2226,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>56</v>
@@ -2253,10 +2241,10 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>132</v>
@@ -2265,13 +2253,13 @@
         <v>140279</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,13 +2274,13 @@
         <v>495046</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>463</v>
@@ -2304,10 +2292,10 @@
         <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>941</v>
@@ -2316,13 +2304,13 @@
         <v>983210</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,7 +2366,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2390,13 +2378,13 @@
         <v>92873</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>75</v>
@@ -2405,13 +2393,13 @@
         <v>77868</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>168</v>
@@ -2420,13 +2408,13 @@
         <v>170741</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,13 +2429,13 @@
         <v>410060</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>500</v>
@@ -2456,13 +2444,13 @@
         <v>525697</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>893</v>
@@ -2471,13 +2459,13 @@
         <v>935756</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,7 +2521,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2545,13 +2533,13 @@
         <v>111475</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>86</v>
@@ -2560,13 +2548,13 @@
         <v>87820</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>191</v>
@@ -2575,13 +2563,13 @@
         <v>199295</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,13 +2584,13 @@
         <v>293273</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>343</v>
@@ -2611,13 +2599,13 @@
         <v>351365</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>618</v>
@@ -2626,13 +2614,13 @@
         <v>644638</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,7 +2676,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2700,13 +2688,13 @@
         <v>71583</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>63</v>
@@ -2715,13 +2703,13 @@
         <v>64573</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>139</v>
@@ -2730,13 +2718,13 @@
         <v>136156</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2739,13 @@
         <v>200766</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>249</v>
@@ -2766,13 +2754,13 @@
         <v>254509</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>449</v>
@@ -2781,13 +2769,13 @@
         <v>455275</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2831,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2855,13 +2843,13 @@
         <v>93948</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>83</v>
@@ -2870,13 +2858,13 @@
         <v>83891</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>178</v>
@@ -2885,13 +2873,13 @@
         <v>177839</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2894,13 @@
         <v>245581</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>366</v>
@@ -2921,13 +2909,13 @@
         <v>371255</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>620</v>
@@ -2936,13 +2924,13 @@
         <v>616836</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,13 +2998,13 @@
         <v>489693</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>395</v>
@@ -3025,13 +3013,13 @@
         <v>402562</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>879</v>
@@ -3040,13 +3028,13 @@
         <v>892255</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3049,13 @@
         <v>1965049</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>2284</v>
@@ -3076,13 +3064,13 @@
         <v>2338375</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>4207</v>
@@ -3091,13 +3079,13 @@
         <v>4303424</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,7 +3141,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3175,7 +3163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4F6FD1-72F1-4F18-BFD5-9DAD125DD819}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AD5832-348F-4101-971F-CDFF501CDA2D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3192,7 +3180,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3299,13 +3287,13 @@
         <v>52093</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="H4" s="7">
         <v>47</v>
@@ -3314,13 +3302,13 @@
         <v>48041</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>99</v>
@@ -3329,13 +3317,13 @@
         <v>100134</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,28 +3338,28 @@
         <v>327083</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>315</v>
       </c>
       <c r="I5" s="7">
-        <v>322950</v>
+        <v>322949</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>636</v>
@@ -3380,13 +3368,13 @@
         <v>650032</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,7 +3401,7 @@
         <v>362</v>
       </c>
       <c r="I6" s="7">
-        <v>370991</v>
+        <v>370990</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3454,13 +3442,13 @@
         <v>110089</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H7" s="7">
         <v>64</v>
@@ -3469,13 +3457,13 @@
         <v>65765</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>171</v>
@@ -3484,13 +3472,13 @@
         <v>175854</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3493,13 @@
         <v>487178</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="H8" s="7">
         <v>457</v>
@@ -3520,13 +3508,13 @@
         <v>491980</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M8" s="7">
         <v>930</v>
@@ -3535,13 +3523,13 @@
         <v>979158</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,7 +3585,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3609,13 +3597,13 @@
         <v>133982</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>90</v>
@@ -3624,13 +3612,13 @@
         <v>94864</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>219</v>
@@ -3639,13 +3627,13 @@
         <v>228846</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,13 +3648,13 @@
         <v>452669</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H11" s="7">
         <v>531</v>
@@ -3675,13 +3663,13 @@
         <v>564590</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>965</v>
@@ -3690,13 +3678,13 @@
         <v>1017258</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,7 +3740,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3764,13 +3752,13 @@
         <v>134285</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>90</v>
@@ -3779,13 +3767,13 @@
         <v>102619</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>213</v>
@@ -3794,13 +3782,13 @@
         <v>236905</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,16 +3800,16 @@
         <v>360</v>
       </c>
       <c r="D14" s="7">
-        <v>408554</v>
+        <v>408555</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>403</v>
@@ -3830,13 +3818,13 @@
         <v>460732</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>763</v>
@@ -3845,13 +3833,13 @@
         <v>869285</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,7 +3851,7 @@
         <v>483</v>
       </c>
       <c r="D15" s="7">
-        <v>542839</v>
+        <v>542840</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3907,7 +3895,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3919,13 +3907,13 @@
         <v>114826</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -3934,13 +3922,13 @@
         <v>87292</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>186</v>
@@ -3949,13 +3937,13 @@
         <v>202117</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,13 +3958,13 @@
         <v>246484</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H17" s="7">
         <v>273</v>
@@ -3985,13 +3973,13 @@
         <v>302395</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>499</v>
@@ -4000,13 +3988,13 @@
         <v>548880</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,7 +4050,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4074,13 +4062,13 @@
         <v>174922</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H19" s="7">
         <v>144</v>
@@ -4089,13 +4077,13 @@
         <v>153285</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M19" s="7">
         <v>300</v>
@@ -4104,13 +4092,13 @@
         <v>328207</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,13 +4113,13 @@
         <v>272494</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H20" s="7">
         <v>421</v>
@@ -4140,13 +4128,13 @@
         <v>450709</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>669</v>
@@ -4155,13 +4143,13 @@
         <v>723203</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4217,13 @@
         <v>720197</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>514</v>
@@ -4244,13 +4232,13 @@
         <v>551865</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M22" s="7">
         <v>1188</v>
@@ -4259,13 +4247,13 @@
         <v>1272062</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>250</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,13 +4268,13 @@
         <v>2194461</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="H23" s="7">
         <v>2400</v>
@@ -4295,28 +4283,28 @@
         <v>2593356</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M23" s="7">
         <v>4462</v>
       </c>
       <c r="N23" s="7">
-        <v>4787818</v>
+        <v>4787817</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>258</v>
+        <v>59</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,7 +4346,7 @@
         <v>5650</v>
       </c>
       <c r="N24" s="7">
-        <v>6059880</v>
+        <v>6059879</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4372,7 +4360,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4394,7 +4382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848DB49F-591C-494C-9ED2-F9084933FE58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C25A64-EC62-43DA-866C-E9805DB94199}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4411,7 +4399,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4518,13 +4506,13 @@
         <v>32521</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -4533,13 +4521,13 @@
         <v>29973</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -4548,13 +4536,13 @@
         <v>62494</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4557,13 @@
         <v>320319</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H5" s="7">
         <v>329</v>
@@ -4584,13 +4572,13 @@
         <v>321957</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>274</v>
+        <v>190</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M5" s="7">
         <v>630</v>
@@ -4599,13 +4587,13 @@
         <v>642276</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4661,13 @@
         <v>70533</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H7" s="7">
         <v>62</v>
@@ -4688,13 +4676,13 @@
         <v>59872</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M7" s="7">
         <v>128</v>
@@ -4703,13 +4691,13 @@
         <v>130405</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>159</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +4712,13 @@
         <v>422545</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H8" s="7">
         <v>448</v>
@@ -4739,13 +4727,13 @@
         <v>436848</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M8" s="7">
         <v>857</v>
@@ -4754,13 +4742,13 @@
         <v>859392</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>167</v>
+        <v>297</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,7 +4804,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4828,13 +4816,13 @@
         <v>78975</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H10" s="7">
         <v>60</v>
@@ -4843,13 +4831,13 @@
         <v>60119</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M10" s="7">
         <v>136</v>
@@ -4858,13 +4846,13 @@
         <v>139095</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4867,13 @@
         <v>478885</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H11" s="7">
         <v>516</v>
@@ -4894,13 +4882,13 @@
         <v>512961</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M11" s="7">
         <v>971</v>
@@ -4909,13 +4897,13 @@
         <v>991845</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,7 +4959,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4983,13 +4971,13 @@
         <v>91910</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -4998,13 +4986,13 @@
         <v>64862</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M13" s="7">
         <v>145</v>
@@ -5013,13 +5001,13 @@
         <v>156772</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,13 +5022,13 @@
         <v>420462</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
         <v>447</v>
@@ -5049,13 +5037,13 @@
         <v>480022</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M14" s="7">
         <v>825</v>
@@ -5064,13 +5052,13 @@
         <v>900484</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,7 +5114,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5138,13 +5126,13 @@
         <v>98525</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -5153,13 +5141,13 @@
         <v>52132</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M16" s="7">
         <v>133</v>
@@ -5168,13 +5156,13 @@
         <v>150657</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>335</v>
+        <v>177</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,13 +5177,13 @@
         <v>272477</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H17" s="7">
         <v>298</v>
@@ -5204,13 +5192,13 @@
         <v>342647</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M17" s="7">
         <v>540</v>
@@ -5219,13 +5207,13 @@
         <v>615123</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>344</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,7 +5269,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5293,13 +5281,13 @@
         <v>103264</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>90</v>
+        <v>350</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H19" s="7">
         <v>87</v>
@@ -5308,13 +5296,13 @@
         <v>106386</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>350</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M19" s="7">
         <v>197</v>
@@ -5323,13 +5311,13 @@
         <v>209650</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,13 +5332,13 @@
         <v>273918</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>359</v>
       </c>
       <c r="H20" s="7">
         <v>343</v>
@@ -5359,13 +5347,13 @@
         <v>398441</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>359</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>634</v>
@@ -5374,13 +5362,13 @@
         <v>672359</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,13 +5436,13 @@
         <v>475728</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H22" s="7">
         <v>345</v>
@@ -5463,13 +5451,13 @@
         <v>373344</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>367</v>
+        <v>180</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M22" s="7">
         <v>799</v>
@@ -5478,13 +5466,13 @@
         <v>849072</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,16 +5484,16 @@
         <v>2076</v>
       </c>
       <c r="D23" s="7">
-        <v>2188605</v>
+        <v>2188606</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H23" s="7">
         <v>2381</v>
@@ -5514,13 +5502,13 @@
         <v>2492876</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>376</v>
+        <v>190</v>
       </c>
       <c r="M23" s="7">
         <v>4457</v>
@@ -5529,13 +5517,13 @@
         <v>4681482</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,7 +5535,7 @@
         <v>2530</v>
       </c>
       <c r="D24" s="7">
-        <v>2664333</v>
+        <v>2664334</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -5591,7 +5579,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5613,7 +5601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D419163-A9A9-49D3-93D1-2FA668F45E62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE0149C-CD2A-4980-8643-AF9D0846B401}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5630,7 +5618,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5737,13 +5725,13 @@
         <v>26667</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -5752,13 +5740,13 @@
         <v>13898</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -5767,13 +5755,13 @@
         <v>40565</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5776,13 @@
         <v>331091</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H5" s="7">
         <v>185</v>
@@ -5803,13 +5791,13 @@
         <v>330598</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M5" s="7">
         <v>331</v>
@@ -5818,13 +5806,13 @@
         <v>661689</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,13 +5880,13 @@
         <v>46249</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -5907,13 +5895,13 @@
         <v>41802</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -5922,13 +5910,13 @@
         <v>88051</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +5931,13 @@
         <v>360951</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H8" s="7">
         <v>403</v>
@@ -5958,13 +5946,13 @@
         <v>444073</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M8" s="7">
         <v>651</v>
@@ -5973,13 +5961,13 @@
         <v>805024</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,7 +6023,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6047,13 +6035,13 @@
         <v>64188</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -6062,13 +6050,13 @@
         <v>49326</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M10" s="7">
         <v>146</v>
@@ -6077,13 +6065,13 @@
         <v>113514</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>423</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6086,13 @@
         <v>478895</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H11" s="7">
         <v>751</v>
@@ -6113,13 +6101,13 @@
         <v>522870</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M11" s="7">
         <v>1205</v>
@@ -6128,13 +6116,13 @@
         <v>1001766</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>433</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,7 +6178,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6223,7 +6211,7 @@
         <v>438</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M13" s="7">
         <v>211</v>
@@ -6238,7 +6226,7 @@
         <v>440</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>441</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6241,13 @@
         <v>607195</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="H14" s="7">
         <v>1008</v>
@@ -6268,13 +6256,13 @@
         <v>664146</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="M14" s="7">
         <v>1547</v>
@@ -6283,13 +6271,13 @@
         <v>1271339</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,7 +6333,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6357,13 +6345,13 @@
         <v>116830</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="H16" s="7">
         <v>140</v>
@@ -6372,13 +6360,13 @@
         <v>80879</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="M16" s="7">
         <v>281</v>
@@ -6387,13 +6375,13 @@
         <v>197708</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,13 +6396,13 @@
         <v>467940</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="H17" s="7">
         <v>841</v>
@@ -6423,28 +6411,28 @@
         <v>501464</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="M17" s="7">
         <v>1345</v>
       </c>
       <c r="N17" s="7">
-        <v>969405</v>
+        <v>969406</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,7 +6474,7 @@
         <v>1626</v>
       </c>
       <c r="N18" s="7">
-        <v>1167113</v>
+        <v>1167114</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6500,7 +6488,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6512,13 +6500,13 @@
         <v>165384</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>196</v>
+        <v>466</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="H19" s="7">
         <v>312</v>
@@ -6527,13 +6515,13 @@
         <v>156129</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="M19" s="7">
         <v>567</v>
@@ -6542,13 +6530,13 @@
         <v>321513</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,7 +6551,7 @@
         <v>515078</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>204</v>
+        <v>475</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>476</v>
@@ -6670,10 +6658,10 @@
         <v>484</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="H22" s="7">
         <v>684</v>
@@ -6682,13 +6670,13 @@
         <v>411696</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="M22" s="7">
         <v>1298</v>
@@ -6697,13 +6685,13 @@
         <v>926413</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,13 +6706,13 @@
         <v>2761149</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>495</v>
+        <v>377</v>
       </c>
       <c r="H23" s="7">
         <v>4533</v>
@@ -6733,13 +6721,13 @@
         <v>3305152</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>496</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="M23" s="7">
         <v>7171</v>
@@ -6748,13 +6736,13 @@
         <v>6066301</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6810,7 +6798,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC3B99EB-F30F-48DE-B426-B170570B7E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D8E4FFB-8990-4D9C-9264-A90E53EDB12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{98495C4C-7F04-403C-8B09-1982258287F4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA3A95DA-C29C-412B-BF67-224F69326A5C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>10,87%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
   </si>
   <si>
     <t>7,67%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
   </si>
   <si>
     <t>9,24%</t>
   </si>
   <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>89,13%</t>
   </si>
   <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
   </si>
   <si>
     <t>92,33%</t>
   </si>
   <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
   </si>
   <si>
     <t>90,76%</t>
   </si>
   <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,49 +140,49 @@
     <t>14,02%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
   </si>
   <si>
     <t>12,49%</t>
   </si>
   <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
   </si>
   <si>
     <t>85,98%</t>
   </si>
   <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
   </si>
   <si>
     <t>87,51%</t>
   </si>
   <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -191,55 +191,55 @@
     <t>18,47%</t>
   </si>
   <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
   </si>
   <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
   </si>
   <si>
     <t>15,43%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
   </si>
   <si>
     <t>81,53%</t>
   </si>
   <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
   </si>
   <si>
     <t>87,1%</t>
   </si>
   <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
   </si>
   <si>
     <t>84,57%</t>
   </si>
   <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -248,55 +248,55 @@
     <t>27,54%</t>
   </si>
   <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
   </si>
   <si>
     <t>20,0%</t>
   </si>
   <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
   </si>
   <si>
     <t>23,62%</t>
   </si>
   <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
   </si>
   <si>
     <t>72,46%</t>
   </si>
   <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
   </si>
   <si>
     <t>80,0%</t>
   </si>
   <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
   </si>
   <si>
     <t>76,38%</t>
   </si>
   <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -305,160 +305,154 @@
     <t>26,28%</t>
   </si>
   <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
   </si>
   <si>
     <t>20,24%</t>
   </si>
   <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
   </si>
   <si>
     <t>23,02%</t>
   </si>
   <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
     <t>19,95%</t>
   </si>
   <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
   </si>
   <si>
     <t>80,05%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
+    <t>78,31%</t>
   </si>
   <si>
     <t>85,31%</t>
   </si>
   <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
   </si>
   <si>
     <t>82,83%</t>
   </si>
   <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -470,1069 +464,1081 @@
     <t>13,74%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
   </si>
   <si>
     <t>12,95%</t>
   </si>
   <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
   </si>
   <si>
     <t>13,35%</t>
   </si>
   <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
   </si>
   <si>
     <t>86,26%</t>
   </si>
   <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
   </si>
   <si>
     <t>87,05%</t>
   </si>
   <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
   </si>
   <si>
     <t>86,65%</t>
   </si>
   <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
   </si>
   <si>
     <t>11,79%</t>
   </si>
   <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
   </si>
   <si>
     <t>15,23%</t>
   </si>
   <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
   </si>
   <si>
     <t>88,21%</t>
   </si>
   <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
   </si>
   <si>
     <t>84,77%</t>
   </si>
   <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
   </si>
   <si>
     <t>22,84%</t>
   </si>
   <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2016 (Tasa respuesta: 80,01%)</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
     <t>19,67%</t>
   </si>
   <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
   </si>
   <si>
     <t>80,33%</t>
   </si>
   <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2016 (Tasa respuesta: 80,01%)</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2023 (Tasa respuesta: 96,87%)</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2023 (Tasa respuesta: 96,87%)</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
     <t>87,99%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
+    <t>90,06%</t>
   </si>
   <si>
     <t>86,75%</t>
   </si>
   <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
   </si>
 </sst>
 </file>
@@ -1944,7 +1950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366DE67C-CDED-494C-B8BE-55E48AA3C0EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE205A4-8708-442E-B5AE-91885546A676}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2864,7 +2870,7 @@
         <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="M19" s="7">
         <v>178</v>
@@ -2873,13 +2879,13 @@
         <v>177839</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,13 +2900,13 @@
         <v>245581</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>366</v>
@@ -2909,13 +2915,13 @@
         <v>371255</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>620</v>
@@ -2924,13 +2930,13 @@
         <v>616836</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +3004,13 @@
         <v>489693</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>395</v>
@@ -3013,13 +3019,13 @@
         <v>402562</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>879</v>
@@ -3028,13 +3034,13 @@
         <v>892255</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,13 +3055,13 @@
         <v>1965049</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="H23" s="7">
         <v>2284</v>
@@ -3064,13 +3070,13 @@
         <v>2338375</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>4207</v>
@@ -3079,13 +3085,13 @@
         <v>4303424</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,7 +3147,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +3169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AD5832-348F-4101-971F-CDFF501CDA2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B66A6FE-B1C7-4102-A4AB-36EA7177A550}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3180,7 +3186,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3287,13 +3293,13 @@
         <v>52093</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H4" s="7">
         <v>47</v>
@@ -3302,13 +3308,13 @@
         <v>48041</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>99</v>
@@ -3317,13 +3323,13 @@
         <v>100134</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,13 +3344,13 @@
         <v>327083</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>315</v>
@@ -3353,13 +3359,13 @@
         <v>322949</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>636</v>
@@ -3368,13 +3374,13 @@
         <v>650032</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,10 +3451,10 @@
         <v>109</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H7" s="7">
         <v>64</v>
@@ -3457,13 +3463,13 @@
         <v>65765</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>171</v>
@@ -3472,13 +3478,13 @@
         <v>175854</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3499,13 @@
         <v>487178</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H8" s="7">
         <v>457</v>
@@ -3508,13 +3514,13 @@
         <v>491980</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M8" s="7">
         <v>930</v>
@@ -3523,13 +3529,13 @@
         <v>979158</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3603,13 @@
         <v>133982</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>90</v>
@@ -3612,13 +3618,13 @@
         <v>94864</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>219</v>
@@ -3627,13 +3633,13 @@
         <v>228846</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +3654,13 @@
         <v>452669</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H11" s="7">
         <v>531</v>
@@ -3663,13 +3669,13 @@
         <v>564590</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>965</v>
@@ -3678,13 +3684,13 @@
         <v>1017258</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,13 +3758,13 @@
         <v>134285</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>90</v>
@@ -3767,13 +3773,13 @@
         <v>102619</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>213</v>
@@ -3782,13 +3788,13 @@
         <v>236905</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +3809,13 @@
         <v>408555</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>403</v>
@@ -3818,13 +3824,13 @@
         <v>460732</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>763</v>
@@ -3833,13 +3839,13 @@
         <v>869285</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,13 +3913,13 @@
         <v>114826</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -3922,13 +3928,13 @@
         <v>87292</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>186</v>
@@ -3937,13 +3943,13 @@
         <v>202117</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,13 +3964,13 @@
         <v>246484</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H17" s="7">
         <v>273</v>
@@ -3973,13 +3979,13 @@
         <v>302395</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>499</v>
@@ -3988,13 +3994,13 @@
         <v>548880</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4068,13 @@
         <v>174922</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H19" s="7">
         <v>144</v>
@@ -4077,13 +4083,13 @@
         <v>153285</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M19" s="7">
         <v>300</v>
@@ -4092,13 +4098,13 @@
         <v>328207</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,13 +4119,13 @@
         <v>272494</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H20" s="7">
         <v>421</v>
@@ -4128,13 +4134,13 @@
         <v>450709</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>669</v>
@@ -4143,13 +4149,13 @@
         <v>723203</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4223,13 @@
         <v>720197</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>514</v>
@@ -4232,13 +4238,13 @@
         <v>551865</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M22" s="7">
         <v>1188</v>
@@ -4247,13 +4253,13 @@
         <v>1272062</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,13 +4274,13 @@
         <v>2194461</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H23" s="7">
         <v>2400</v>
@@ -4283,25 +4289,25 @@
         <v>2593356</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M23" s="7">
         <v>4462</v>
       </c>
       <c r="N23" s="7">
-        <v>4787817</v>
+        <v>4787818</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>263</v>
@@ -4346,7 +4352,7 @@
         <v>5650</v>
       </c>
       <c r="N24" s="7">
-        <v>6059879</v>
+        <v>6059880</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4360,7 +4366,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4382,7 +4388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C25A64-EC62-43DA-866C-E9805DB94199}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD90084-2E5C-4DF5-B2D0-4029486D5889}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4527,7 +4533,7 @@
         <v>269</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -4536,13 +4542,13 @@
         <v>62494</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,13 +4563,13 @@
         <v>320319</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H5" s="7">
         <v>329</v>
@@ -4572,13 +4578,13 @@
         <v>321957</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>190</v>
+        <v>278</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M5" s="7">
         <v>630</v>
@@ -4587,13 +4593,13 @@
         <v>642276</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4667,13 @@
         <v>70533</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H7" s="7">
         <v>62</v>
@@ -4676,13 +4682,13 @@
         <v>59872</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>285</v>
+        <v>161</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M7" s="7">
         <v>128</v>
@@ -4691,13 +4697,13 @@
         <v>130405</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,13 +4718,13 @@
         <v>422545</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H8" s="7">
         <v>448</v>
@@ -4727,13 +4733,13 @@
         <v>436848</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>295</v>
+        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>857</v>
@@ -4852,7 +4858,7 @@
         <v>306</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +4873,13 @@
         <v>478885</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H11" s="7">
         <v>516</v>
@@ -4882,13 +4888,13 @@
         <v>512961</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M11" s="7">
         <v>971</v>
@@ -4897,13 +4903,13 @@
         <v>991845</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,13 +4977,13 @@
         <v>91910</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -4986,13 +4992,13 @@
         <v>64862</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M13" s="7">
         <v>145</v>
@@ -5001,13 +5007,13 @@
         <v>156772</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,13 +5028,13 @@
         <v>420462</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H14" s="7">
         <v>447</v>
@@ -5156,13 +5162,13 @@
         <v>150657</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>177</v>
+        <v>339</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,13 +5183,13 @@
         <v>272477</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H17" s="7">
         <v>298</v>
@@ -5192,13 +5198,13 @@
         <v>342647</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M17" s="7">
         <v>540</v>
@@ -5207,13 +5213,13 @@
         <v>615123</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>187</v>
+        <v>348</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,13 +5287,13 @@
         <v>103264</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H19" s="7">
         <v>87</v>
@@ -5296,13 +5302,13 @@
         <v>106386</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M19" s="7">
         <v>197</v>
@@ -5311,13 +5317,13 @@
         <v>209650</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,13 +5338,13 @@
         <v>273918</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H20" s="7">
         <v>343</v>
@@ -5347,13 +5353,13 @@
         <v>398441</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="M20" s="7">
         <v>634</v>
@@ -5362,13 +5368,13 @@
         <v>672359</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,13 +5442,13 @@
         <v>475728</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H22" s="7">
         <v>345</v>
@@ -5451,13 +5457,13 @@
         <v>373344</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>180</v>
+        <v>371</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M22" s="7">
         <v>799</v>
@@ -5466,13 +5472,13 @@
         <v>849072</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>371</v>
+        <v>13</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,13 +5493,13 @@
         <v>2188606</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H23" s="7">
         <v>2381</v>
@@ -5502,13 +5508,13 @@
         <v>2492876</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>190</v>
+        <v>380</v>
       </c>
       <c r="M23" s="7">
         <v>4457</v>
@@ -5517,13 +5523,13 @@
         <v>4681482</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>380</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,7 +5585,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5601,7 +5607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE0149C-CD2A-4980-8643-AF9D0846B401}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922C0F53-A180-4A94-AAFD-AA09D4A68160}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5618,7 +5624,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5725,13 +5731,13 @@
         <v>26667</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -5740,13 +5746,13 @@
         <v>13898</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -5755,13 +5761,13 @@
         <v>40565</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5782,13 @@
         <v>331091</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H5" s="7">
         <v>185</v>
@@ -5791,13 +5797,13 @@
         <v>330598</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M5" s="7">
         <v>331</v>
@@ -5806,13 +5812,13 @@
         <v>661689</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +5886,13 @@
         <v>46249</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -5895,13 +5901,13 @@
         <v>41802</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -5910,13 +5916,13 @@
         <v>88051</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5931,13 +5937,13 @@
         <v>360951</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H8" s="7">
         <v>403</v>
@@ -5946,13 +5952,13 @@
         <v>444073</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M8" s="7">
         <v>651</v>
@@ -5961,13 +5967,13 @@
         <v>805024</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6041,13 @@
         <v>64188</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -6050,13 +6056,13 @@
         <v>49326</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M10" s="7">
         <v>146</v>
@@ -6065,13 +6071,13 @@
         <v>113514</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>35</v>
+        <v>427</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6092,13 @@
         <v>478895</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="H11" s="7">
         <v>751</v>
@@ -6101,13 +6107,13 @@
         <v>522870</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M11" s="7">
         <v>1205</v>
@@ -6116,13 +6122,13 @@
         <v>1001766</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>44</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6196,13 @@
         <v>95399</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>436</v>
+        <v>148</v>
       </c>
       <c r="H13" s="7">
         <v>109</v>
@@ -6205,13 +6211,13 @@
         <v>69661</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M13" s="7">
         <v>211</v>
@@ -6220,13 +6226,13 @@
         <v>165061</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>384</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6247,13 @@
         <v>607195</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>442</v>
+        <v>156</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="H14" s="7">
         <v>1008</v>
@@ -6256,13 +6262,13 @@
         <v>664146</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="M14" s="7">
         <v>1547</v>
@@ -6271,13 +6277,13 @@
         <v>1271339</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>392</v>
+        <v>450</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,13 +6351,13 @@
         <v>116830</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="H16" s="7">
         <v>140</v>
@@ -6360,13 +6366,13 @@
         <v>80879</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="M16" s="7">
         <v>281</v>
@@ -6375,13 +6381,13 @@
         <v>197708</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>455</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,13 +6402,13 @@
         <v>467940</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="H17" s="7">
         <v>841</v>
@@ -6411,28 +6417,28 @@
         <v>501464</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="M17" s="7">
         <v>1345</v>
       </c>
       <c r="N17" s="7">
-        <v>969406</v>
+        <v>969405</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>465</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,7 +6480,7 @@
         <v>1626</v>
       </c>
       <c r="N18" s="7">
-        <v>1167114</v>
+        <v>1167113</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6500,13 +6506,13 @@
         <v>165384</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>467</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H19" s="7">
         <v>312</v>
@@ -6515,13 +6521,13 @@
         <v>156129</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M19" s="7">
         <v>567</v>
@@ -6530,13 +6536,13 @@
         <v>321513</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,13 +6557,13 @@
         <v>515078</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>477</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>1345</v>
@@ -6655,10 +6661,10 @@
         <v>514717</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>485</v>
@@ -6670,13 +6676,13 @@
         <v>411696</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>486</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M22" s="7">
         <v>1298</v>
@@ -6685,13 +6691,13 @@
         <v>926413</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6712,13 @@
         <v>2761149</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>491</v>
+        <v>167</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>492</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>377</v>
+        <v>493</v>
       </c>
       <c r="H23" s="7">
         <v>4533</v>
@@ -6721,13 +6727,13 @@
         <v>3305152</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>494</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M23" s="7">
         <v>7171</v>
@@ -6736,13 +6742,13 @@
         <v>6066301</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6798,7 +6804,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D8E4FFB-8990-4D9C-9264-A90E53EDB12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4D6BA29-C056-4D05-91B7-89D5FD8BD1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA3A95DA-C29C-412B-BF67-224F69326A5C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9DC01EAE-1728-4F2C-B5CB-6A0C16EB7401}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="571">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>14,02%</t>
@@ -185,7 +185,7 @@
     <t>89,52%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>18,47%</t>
@@ -242,7 +242,7 @@
     <t>86,8%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>27,54%</t>
@@ -299,7 +299,7 @@
     <t>79,33%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>26,28%</t>
@@ -356,87 +356,150 @@
     <t>80,29%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
   </si>
   <si>
     <t>18,43%</t>
   </si>
   <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
   </si>
   <si>
     <t>81,57%</t>
   </si>
   <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
     <t>85,31%</t>
   </si>
   <si>
@@ -725,58 +788,112 @@
     <t>76,13%</t>
   </si>
   <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
   </si>
   <si>
     <t>24,71%</t>
@@ -1094,52 +1211,112 @@
     <t>83,25%</t>
   </si>
   <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
   </si>
   <si>
     <t>17,86%</t>
@@ -1193,352 +1370,388 @@
     <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2023 (Tasa respuesta: 96,87%)</t>
   </si>
   <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
     <t>7,45%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
   </si>
   <si>
     <t>92,55%</t>
   </si>
   <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
   </si>
   <si>
     <t>15,34%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
   </si>
   <si>
     <t>84,66%</t>
   </si>
   <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
   </si>
 </sst>
 </file>
@@ -1950,8 +2163,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE205A4-8708-442E-B5AE-91885546A676}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC94437-3A85-49B7-B724-4020A4CAEEF2}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2152,7 +2365,7 @@
         <v>686</v>
       </c>
       <c r="N5" s="7">
-        <v>667708</v>
+        <v>667707</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2203,7 +2416,7 @@
         <v>757</v>
       </c>
       <c r="N6" s="7">
-        <v>735654</v>
+        <v>735653</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2843,10 +3056,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="D19" s="7">
-        <v>93948</v>
+        <v>62656</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -2858,10 +3071,10 @@
         <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="I19" s="7">
-        <v>83891</v>
+        <v>49213</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>109</v>
@@ -2870,19 +3083,19 @@
         <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="N19" s="7">
-        <v>177839</v>
+        <v>111869</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>113</v>
@@ -2894,10 +3107,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>254</v>
+        <v>155</v>
       </c>
       <c r="D20" s="7">
-        <v>245581</v>
+        <v>150109</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>114</v>
@@ -2909,34 +3122,34 @@
         <v>116</v>
       </c>
       <c r="H20" s="7">
-        <v>366</v>
+        <v>214</v>
       </c>
       <c r="I20" s="7">
-        <v>371255</v>
+        <v>197725</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
-        <v>620</v>
+        <v>369</v>
       </c>
       <c r="N20" s="7">
-        <v>616836</v>
+        <v>347834</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,10 +3158,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>349</v>
+        <v>219</v>
       </c>
       <c r="D21" s="7">
-        <v>339529</v>
+        <v>212765</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2960,10 +3173,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>449</v>
+        <v>267</v>
       </c>
       <c r="I21" s="7">
-        <v>455146</v>
+        <v>246938</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2975,10 +3188,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>798</v>
+        <v>486</v>
       </c>
       <c r="N21" s="7">
-        <v>794675</v>
+        <v>459703</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2992,55 +3205,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>484</v>
+        <v>31</v>
       </c>
       <c r="D22" s="7">
-        <v>489693</v>
+        <v>31292</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
-        <v>395</v>
+        <v>30</v>
       </c>
       <c r="I22" s="7">
-        <v>402562</v>
+        <v>34678</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
-        <v>879</v>
+        <v>61</v>
       </c>
       <c r="N22" s="7">
-        <v>892255</v>
+        <v>65970</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,49 +3262,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1923</v>
+        <v>99</v>
       </c>
       <c r="D23" s="7">
-        <v>1965049</v>
+        <v>95472</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
-        <v>2284</v>
+        <v>152</v>
       </c>
       <c r="I23" s="7">
-        <v>2338375</v>
+        <v>173530</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
-        <v>4207</v>
+        <v>251</v>
       </c>
       <c r="N23" s="7">
-        <v>4303424</v>
+        <v>269002</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,63 +3313,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>130</v>
+      </c>
+      <c r="D24" s="7">
+        <v>126764</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>182</v>
+      </c>
+      <c r="I24" s="7">
+        <v>208208</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>312</v>
+      </c>
+      <c r="N24" s="7">
+        <v>334972</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>484</v>
+      </c>
+      <c r="D25" s="7">
+        <v>489693</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="7">
+        <v>395</v>
+      </c>
+      <c r="I25" s="7">
+        <v>402562</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M25" s="7">
+        <v>879</v>
+      </c>
+      <c r="N25" s="7">
+        <v>892255</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1923</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1965049</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2284</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2338375</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4207</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4303424</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2407</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>2454742</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2679</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>2740937</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>5086</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>5195679</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3169,8 +3538,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B66A6FE-B1C7-4102-A4AB-36EA7177A550}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB601E2-B568-40F7-9D89-14E2A080CD90}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3186,7 +3555,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3293,13 +3662,13 @@
         <v>52093</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>47</v>
@@ -3308,13 +3677,13 @@
         <v>48041</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>99</v>
@@ -3323,13 +3692,13 @@
         <v>100134</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,28 +3713,28 @@
         <v>327083</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>315</v>
       </c>
       <c r="I5" s="7">
-        <v>322949</v>
+        <v>322950</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>636</v>
@@ -3374,13 +3743,13 @@
         <v>650032</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,7 +3776,7 @@
         <v>362</v>
       </c>
       <c r="I6" s="7">
-        <v>370990</v>
+        <v>370991</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3448,13 +3817,13 @@
         <v>110089</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>64</v>
@@ -3463,13 +3832,13 @@
         <v>65765</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>171</v>
@@ -3478,13 +3847,13 @@
         <v>175854</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3868,13 @@
         <v>487178</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>457</v>
@@ -3514,13 +3883,13 @@
         <v>491980</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>930</v>
@@ -3529,13 +3898,13 @@
         <v>979158</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3972,13 @@
         <v>133982</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>90</v>
@@ -3618,13 +3987,13 @@
         <v>94864</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>219</v>
@@ -3633,13 +4002,13 @@
         <v>228846</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +4023,13 @@
         <v>452669</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>531</v>
@@ -3669,13 +4038,13 @@
         <v>564590</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>965</v>
@@ -3684,13 +4053,13 @@
         <v>1017258</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +4127,13 @@
         <v>134285</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>90</v>
@@ -3773,13 +4142,13 @@
         <v>102619</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>213</v>
@@ -3788,13 +4157,13 @@
         <v>236905</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,16 +4175,16 @@
         <v>360</v>
       </c>
       <c r="D14" s="7">
-        <v>408555</v>
+        <v>408554</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>403</v>
@@ -3824,13 +4193,13 @@
         <v>460732</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>763</v>
@@ -3839,13 +4208,13 @@
         <v>869285</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,7 +4226,7 @@
         <v>483</v>
       </c>
       <c r="D15" s="7">
-        <v>542840</v>
+        <v>542839</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3913,13 +4282,13 @@
         <v>114826</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -3928,13 +4297,13 @@
         <v>87292</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>186</v>
@@ -3943,13 +4312,13 @@
         <v>202117</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +4333,13 @@
         <v>246484</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>273</v>
@@ -3979,13 +4348,13 @@
         <v>302395</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>499</v>
@@ -3994,13 +4363,13 @@
         <v>548880</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,49 +4431,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="D19" s="7">
-        <v>174922</v>
+        <v>101381</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="H19" s="7">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="I19" s="7">
-        <v>153285</v>
+        <v>71577</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="M19" s="7">
-        <v>300</v>
+        <v>163</v>
       </c>
       <c r="N19" s="7">
-        <v>328207</v>
+        <v>172958</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,49 +4482,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>248</v>
+        <v>146</v>
       </c>
       <c r="D20" s="7">
-        <v>272494</v>
+        <v>161109</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
-        <v>421</v>
+        <v>221</v>
       </c>
       <c r="I20" s="7">
-        <v>450709</v>
+        <v>229012</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
-        <v>669</v>
+        <v>367</v>
       </c>
       <c r="N20" s="7">
-        <v>723203</v>
+        <v>390121</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,10 +4533,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>404</v>
+        <v>239</v>
       </c>
       <c r="D21" s="7">
-        <v>447416</v>
+        <v>262490</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4179,10 +4548,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>565</v>
+        <v>291</v>
       </c>
       <c r="I21" s="7">
-        <v>603994</v>
+        <v>300589</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4194,10 +4563,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>969</v>
+        <v>530</v>
       </c>
       <c r="N21" s="7">
-        <v>1051410</v>
+        <v>563079</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4211,55 +4580,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>674</v>
+        <v>63</v>
       </c>
       <c r="D22" s="7">
-        <v>720197</v>
+        <v>73541</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
-        <v>514</v>
+        <v>74</v>
       </c>
       <c r="I22" s="7">
-        <v>551865</v>
+        <v>81708</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
-        <v>1188</v>
+        <v>137</v>
       </c>
       <c r="N22" s="7">
-        <v>1272062</v>
+        <v>155249</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,49 +4637,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2062</v>
+        <v>102</v>
       </c>
       <c r="D23" s="7">
-        <v>2194461</v>
+        <v>111385</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
-        <v>2400</v>
+        <v>200</v>
       </c>
       <c r="I23" s="7">
-        <v>2593356</v>
+        <v>221697</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
-        <v>4462</v>
+        <v>302</v>
       </c>
       <c r="N23" s="7">
-        <v>4787818</v>
+        <v>333082</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,63 +4688,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>165</v>
+      </c>
+      <c r="D24" s="7">
+        <v>184926</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>274</v>
+      </c>
+      <c r="I24" s="7">
+        <v>303405</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>439</v>
+      </c>
+      <c r="N24" s="7">
+        <v>488331</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>674</v>
+      </c>
+      <c r="D25" s="7">
+        <v>720197</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H25" s="7">
+        <v>514</v>
+      </c>
+      <c r="I25" s="7">
+        <v>551865</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1188</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1272062</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2062</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2194462</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2400</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2593356</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4462</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4787817</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2736</v>
       </c>
-      <c r="D24" s="7">
-        <v>2914658</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>2914659</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2914</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3145221</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>5650</v>
       </c>
-      <c r="N24" s="7">
-        <v>6059880</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="N27" s="7">
+        <v>6059879</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4388,8 +4913,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD90084-2E5C-4DF5-B2D0-4029486D5889}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD83023-77A0-471F-A3C0-E941F0B006C2}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4405,7 +4930,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4512,13 +5037,13 @@
         <v>32521</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -4527,13 +5052,13 @@
         <v>29973</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -4542,13 +5067,13 @@
         <v>62494</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +5088,13 @@
         <v>320319</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="H5" s="7">
         <v>329</v>
@@ -4578,13 +5103,13 @@
         <v>321957</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="M5" s="7">
         <v>630</v>
@@ -4593,13 +5118,13 @@
         <v>642276</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +5192,13 @@
         <v>70533</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>62</v>
@@ -4682,13 +5207,13 @@
         <v>59872</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="M7" s="7">
         <v>128</v>
@@ -4697,13 +5222,13 @@
         <v>130405</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +5243,13 @@
         <v>422545</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="H8" s="7">
         <v>448</v>
@@ -4733,13 +5258,13 @@
         <v>436848</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>857</v>
@@ -4748,13 +5273,13 @@
         <v>859392</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +5347,13 @@
         <v>78975</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="H10" s="7">
         <v>60</v>
@@ -4837,13 +5362,13 @@
         <v>60119</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="M10" s="7">
         <v>136</v>
@@ -4852,13 +5377,13 @@
         <v>139095</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +5398,13 @@
         <v>478885</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="H11" s="7">
         <v>516</v>
@@ -4888,13 +5413,13 @@
         <v>512961</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="M11" s="7">
         <v>971</v>
@@ -4903,13 +5428,13 @@
         <v>991845</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +5502,13 @@
         <v>91910</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -4992,13 +5517,13 @@
         <v>64862</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="M13" s="7">
         <v>145</v>
@@ -5007,13 +5532,13 @@
         <v>156772</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5553,13 @@
         <v>420462</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="H14" s="7">
         <v>447</v>
@@ -5043,13 +5568,13 @@
         <v>480022</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="M14" s="7">
         <v>825</v>
@@ -5058,13 +5583,13 @@
         <v>900484</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,13 +5657,13 @@
         <v>98525</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -5147,13 +5672,13 @@
         <v>52132</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="M16" s="7">
         <v>133</v>
@@ -5162,13 +5687,13 @@
         <v>150657</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,13 +5708,13 @@
         <v>272477</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="H17" s="7">
         <v>298</v>
@@ -5198,13 +5723,13 @@
         <v>342647</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="M17" s="7">
         <v>540</v>
@@ -5213,13 +5738,13 @@
         <v>615123</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,49 +5806,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D19" s="7">
-        <v>103264</v>
+        <v>61957</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="H19" s="7">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="I19" s="7">
-        <v>106386</v>
+        <v>48984</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>394</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="M19" s="7">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="N19" s="7">
-        <v>209650</v>
+        <v>110942</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,49 +5857,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>291</v>
+        <v>166</v>
       </c>
       <c r="D20" s="7">
-        <v>273918</v>
+        <v>168168</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="H20" s="7">
-        <v>343</v>
+        <v>214</v>
       </c>
       <c r="I20" s="7">
-        <v>398441</v>
+        <v>227964</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>41</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
-        <v>634</v>
+        <v>380</v>
       </c>
       <c r="N20" s="7">
-        <v>672359</v>
+        <v>396132</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,10 +5908,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>401</v>
+        <v>226</v>
       </c>
       <c r="D21" s="7">
-        <v>377182</v>
+        <v>230125</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5398,10 +5923,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>430</v>
+        <v>260</v>
       </c>
       <c r="I21" s="7">
-        <v>504827</v>
+        <v>276948</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5413,10 +5938,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>831</v>
+        <v>486</v>
       </c>
       <c r="N21" s="7">
-        <v>882009</v>
+        <v>507074</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5430,55 +5955,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>454</v>
+        <v>50</v>
       </c>
       <c r="D22" s="7">
-        <v>475728</v>
+        <v>41306</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="H22" s="7">
-        <v>345</v>
+        <v>41</v>
       </c>
       <c r="I22" s="7">
-        <v>373344</v>
+        <v>57402</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="M22" s="7">
-        <v>799</v>
+        <v>91</v>
       </c>
       <c r="N22" s="7">
-        <v>849072</v>
+        <v>98708</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>13</v>
+        <v>415</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,49 +6012,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2076</v>
+        <v>125</v>
       </c>
       <c r="D23" s="7">
-        <v>2188606</v>
+        <v>105751</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="H23" s="7">
-        <v>2381</v>
+        <v>129</v>
       </c>
       <c r="I23" s="7">
-        <v>2492876</v>
+        <v>170477</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="M23" s="7">
-        <v>4457</v>
+        <v>254</v>
       </c>
       <c r="N23" s="7">
-        <v>4681482</v>
+        <v>276228</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>22</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,63 +6063,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>175</v>
+      </c>
+      <c r="D24" s="7">
+        <v>147057</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>170</v>
+      </c>
+      <c r="I24" s="7">
+        <v>227879</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>345</v>
+      </c>
+      <c r="N24" s="7">
+        <v>374936</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>454</v>
+      </c>
+      <c r="D25" s="7">
+        <v>475728</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H25" s="7">
+        <v>345</v>
+      </c>
+      <c r="I25" s="7">
+        <v>373344</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="M25" s="7">
+        <v>799</v>
+      </c>
+      <c r="N25" s="7">
+        <v>849072</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2076</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2188605</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2381</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2492877</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4457</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4681482</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2530</v>
       </c>
-      <c r="D24" s="7">
-        <v>2664334</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>2664333</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2726</v>
       </c>
-      <c r="I24" s="7">
-        <v>2866220</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>2866221</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>5256</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>5530554</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5607,8 +6288,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922C0F53-A180-4A94-AAFD-AA09D4A68160}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0ED9CB-CBED-4519-8B50-B57CD761FC01}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5624,7 +6305,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>442</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5728,46 +6409,46 @@
         <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>26667</v>
+        <v>28499</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>384</v>
+        <v>443</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>385</v>
+        <v>444</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>386</v>
+        <v>445</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>13898</v>
+        <v>11850</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>387</v>
+        <v>446</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>388</v>
+        <v>447</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>389</v>
+        <v>448</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
       </c>
       <c r="N4" s="7">
-        <v>40565</v>
+        <v>40349</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>390</v>
+        <v>449</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>391</v>
+        <v>450</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>392</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,46 +6460,46 @@
         <v>146</v>
       </c>
       <c r="D5" s="7">
-        <v>331091</v>
+        <v>354948</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>393</v>
+        <v>451</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>394</v>
+        <v>452</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="H5" s="7">
         <v>185</v>
       </c>
       <c r="I5" s="7">
-        <v>330598</v>
+        <v>291691</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>396</v>
+        <v>454</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="M5" s="7">
         <v>331</v>
       </c>
       <c r="N5" s="7">
-        <v>661689</v>
+        <v>646639</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>400</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,7 +6511,7 @@
         <v>157</v>
       </c>
       <c r="D6" s="7">
-        <v>357758</v>
+        <v>383447</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5845,7 +6526,7 @@
         <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>344496</v>
+        <v>303541</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5860,7 +6541,7 @@
         <v>352</v>
       </c>
       <c r="N6" s="7">
-        <v>702254</v>
+        <v>686988</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5883,46 +6564,46 @@
         <v>33</v>
       </c>
       <c r="D7" s="7">
-        <v>46249</v>
+        <v>44742</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
       </c>
       <c r="I7" s="7">
-        <v>41802</v>
+        <v>37274</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
       </c>
       <c r="N7" s="7">
-        <v>88051</v>
+        <v>82016</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>409</v>
+        <v>311</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>410</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,46 +6615,46 @@
         <v>248</v>
       </c>
       <c r="D8" s="7">
-        <v>360951</v>
+        <v>357609</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>411</v>
+        <v>467</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>412</v>
+        <v>468</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
       <c r="H8" s="7">
         <v>403</v>
       </c>
       <c r="I8" s="7">
-        <v>444073</v>
+        <v>462418</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="M8" s="7">
         <v>651</v>
       </c>
       <c r="N8" s="7">
-        <v>805024</v>
+        <v>820026</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>419</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,7 +6666,7 @@
         <v>281</v>
       </c>
       <c r="D9" s="7">
-        <v>407200</v>
+        <v>402351</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6000,7 +6681,7 @@
         <v>442</v>
       </c>
       <c r="I9" s="7">
-        <v>485875</v>
+        <v>499692</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6015,7 +6696,7 @@
         <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>893075</v>
+        <v>902042</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6038,46 +6719,46 @@
         <v>72</v>
       </c>
       <c r="D10" s="7">
-        <v>64188</v>
+        <v>60512</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
       </c>
       <c r="I10" s="7">
-        <v>49326</v>
+        <v>46223</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="M10" s="7">
         <v>146</v>
       </c>
       <c r="N10" s="7">
-        <v>113514</v>
+        <v>106735</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,46 +6770,46 @@
         <v>454</v>
       </c>
       <c r="D11" s="7">
-        <v>478895</v>
+        <v>462433</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="H11" s="7">
         <v>751</v>
       </c>
       <c r="I11" s="7">
-        <v>522870</v>
+        <v>485658</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>433</v>
+        <v>488</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
       <c r="M11" s="7">
         <v>1205</v>
       </c>
       <c r="N11" s="7">
-        <v>1001766</v>
+        <v>948092</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,7 +6821,7 @@
         <v>526</v>
       </c>
       <c r="D12" s="7">
-        <v>543083</v>
+        <v>522945</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6155,7 +6836,7 @@
         <v>825</v>
       </c>
       <c r="I12" s="7">
-        <v>572196</v>
+        <v>531881</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6170,7 +6851,7 @@
         <v>1351</v>
       </c>
       <c r="N12" s="7">
-        <v>1115280</v>
+        <v>1054827</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6193,46 +6874,46 @@
         <v>102</v>
       </c>
       <c r="D13" s="7">
-        <v>95399</v>
+        <v>89096</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>148</v>
+        <v>494</v>
       </c>
       <c r="H13" s="7">
         <v>109</v>
       </c>
       <c r="I13" s="7">
-        <v>69661</v>
+        <v>64312</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>402</v>
+        <v>497</v>
       </c>
       <c r="M13" s="7">
         <v>211</v>
       </c>
       <c r="N13" s="7">
-        <v>165061</v>
+        <v>153408</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>442</v>
+        <v>498</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,46 +6925,46 @@
         <v>539</v>
       </c>
       <c r="D14" s="7">
-        <v>607195</v>
+        <v>773832</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>445</v>
+        <v>501</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>156</v>
+        <v>502</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="H14" s="7">
         <v>1008</v>
       </c>
       <c r="I14" s="7">
-        <v>664146</v>
+        <v>636280</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>411</v>
+        <v>504</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="M14" s="7">
         <v>1547</v>
       </c>
       <c r="N14" s="7">
-        <v>1271339</v>
+        <v>1410111</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,7 +6976,7 @@
         <v>641</v>
       </c>
       <c r="D15" s="7">
-        <v>702594</v>
+        <v>862928</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6310,7 +6991,7 @@
         <v>1117</v>
       </c>
       <c r="I15" s="7">
-        <v>733807</v>
+        <v>700592</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6325,7 +7006,7 @@
         <v>1758</v>
       </c>
       <c r="N15" s="7">
-        <v>1436400</v>
+        <v>1563519</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6348,46 +7029,46 @@
         <v>141</v>
       </c>
       <c r="D16" s="7">
-        <v>116830</v>
+        <v>108312</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>452</v>
+        <v>509</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="H16" s="7">
         <v>140</v>
       </c>
       <c r="I16" s="7">
-        <v>80879</v>
+        <v>74245</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>456</v>
+        <v>513</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>457</v>
+        <v>514</v>
       </c>
       <c r="M16" s="7">
         <v>281</v>
       </c>
       <c r="N16" s="7">
-        <v>197708</v>
+        <v>182557</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>50</v>
+        <v>516</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6399,46 +7080,46 @@
         <v>504</v>
       </c>
       <c r="D17" s="7">
-        <v>467940</v>
+        <v>438267</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>461</v>
+        <v>519</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>462</v>
+        <v>520</v>
       </c>
       <c r="H17" s="7">
         <v>841</v>
       </c>
       <c r="I17" s="7">
-        <v>501464</v>
+        <v>460281</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>463</v>
+        <v>521</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="M17" s="7">
         <v>1345</v>
       </c>
       <c r="N17" s="7">
-        <v>969405</v>
+        <v>898548</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>466</v>
+        <v>524</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>467</v>
+        <v>525</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>60</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,7 +7131,7 @@
         <v>645</v>
       </c>
       <c r="D18" s="7">
-        <v>584770</v>
+        <v>546579</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6465,7 +7146,7 @@
         <v>981</v>
       </c>
       <c r="I18" s="7">
-        <v>582343</v>
+        <v>534526</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6480,7 +7161,7 @@
         <v>1626</v>
       </c>
       <c r="N18" s="7">
-        <v>1167113</v>
+        <v>1081105</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6500,49 +7181,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>255</v>
+        <v>132</v>
       </c>
       <c r="D19" s="7">
-        <v>165384</v>
+        <v>83938</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>468</v>
+        <v>527</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>528</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>469</v>
+        <v>529</v>
       </c>
       <c r="H19" s="7">
-        <v>312</v>
+        <v>131</v>
       </c>
       <c r="I19" s="7">
-        <v>156129</v>
+        <v>63249</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>471</v>
+        <v>531</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>472</v>
+        <v>166</v>
       </c>
       <c r="M19" s="7">
-        <v>567</v>
+        <v>263</v>
       </c>
       <c r="N19" s="7">
-        <v>321513</v>
+        <v>147187</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>473</v>
+        <v>532</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>474</v>
+        <v>533</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>475</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,49 +7232,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>747</v>
+        <v>424</v>
       </c>
       <c r="D20" s="7">
-        <v>515078</v>
+        <v>275415</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>476</v>
+        <v>534</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>536</v>
       </c>
       <c r="H20" s="7">
-        <v>1345</v>
+        <v>676</v>
       </c>
       <c r="I20" s="7">
-        <v>842001</v>
+        <v>536660</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>478</v>
+        <v>537</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>479</v>
+        <v>174</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
       <c r="M20" s="7">
-        <v>2092</v>
+        <v>1100</v>
       </c>
       <c r="N20" s="7">
-        <v>1357079</v>
+        <v>812075</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>482</v>
+        <v>302</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6602,10 +7283,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1002</v>
+        <v>556</v>
       </c>
       <c r="D21" s="7">
-        <v>680462</v>
+        <v>359353</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6617,10 +7298,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1657</v>
+        <v>807</v>
       </c>
       <c r="I21" s="7">
-        <v>998130</v>
+        <v>599909</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6632,10 +7313,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2659</v>
+        <v>1363</v>
       </c>
       <c r="N21" s="7">
-        <v>1678592</v>
+        <v>959262</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6649,55 +7330,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>614</v>
+        <v>123</v>
       </c>
       <c r="D22" s="7">
-        <v>514717</v>
+        <v>69878</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>158</v>
+        <v>541</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>485</v>
+        <v>543</v>
       </c>
       <c r="H22" s="7">
-        <v>684</v>
+        <v>181</v>
       </c>
       <c r="I22" s="7">
-        <v>411696</v>
+        <v>79249</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>486</v>
+        <v>544</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>487</v>
+        <v>545</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>488</v>
+        <v>546</v>
       </c>
       <c r="M22" s="7">
-        <v>1298</v>
+        <v>304</v>
       </c>
       <c r="N22" s="7">
-        <v>926413</v>
+        <v>149127</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>489</v>
+        <v>547</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>490</v>
+        <v>428</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,49 +7387,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2638</v>
+        <v>323</v>
       </c>
       <c r="D23" s="7">
-        <v>2761149</v>
+        <v>205643</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>167</v>
+        <v>549</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>492</v>
+        <v>550</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>493</v>
+        <v>551</v>
       </c>
       <c r="H23" s="7">
-        <v>4533</v>
+        <v>669</v>
       </c>
       <c r="I23" s="7">
-        <v>3305152</v>
+        <v>329438</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>496</v>
+        <v>554</v>
       </c>
       <c r="M23" s="7">
-        <v>7171</v>
+        <v>992</v>
       </c>
       <c r="N23" s="7">
-        <v>6066301</v>
+        <v>535081</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>499</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,63 +7438,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>446</v>
+      </c>
+      <c r="D24" s="7">
+        <v>275521</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>850</v>
+      </c>
+      <c r="I24" s="7">
+        <v>408687</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1296</v>
+      </c>
+      <c r="N24" s="7">
+        <v>684208</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>614</v>
+      </c>
+      <c r="D25" s="7">
+        <v>484977</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="H25" s="7">
+        <v>684</v>
+      </c>
+      <c r="I25" s="7">
+        <v>376402</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1298</v>
+      </c>
+      <c r="N25" s="7">
+        <v>861379</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2638</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2868148</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4533</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3202425</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7171</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6070573</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3252</v>
       </c>
-      <c r="D24" s="7">
-        <v>3275866</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3353125</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5217</v>
       </c>
-      <c r="I24" s="7">
-        <v>3716848</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3578827</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8469</v>
       </c>
-      <c r="N24" s="7">
-        <v>6992714</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="N27" s="7">
+        <v>6931952</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
